--- a/32 LLM for CJM/01 campaign names and trees.xlsx
+++ b/32 LLM for CJM/01 campaign names and trees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Data-Practice\32 LLM for CJM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CE451D-18E1-4A23-B0E0-94780800F9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F9D66-3DCA-4DB3-9B6C-97824B518FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,12 @@
     <t>segment_touchpoint</t>
   </si>
   <si>
-    <t>segmentId_placeholder</t>
-  </si>
-  <si>
     <t>Placeholders</t>
+  </si>
+  <si>
+    <t>segmentId_placeholder
+cam_name_placeholder
+contentunit_placeholder</t>
   </si>
 </sst>
 </file>
@@ -412,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.35">
@@ -437,7 +439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -447,8 +449,8 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">

--- a/32 LLM for CJM/01 campaign names and trees.xlsx
+++ b/32 LLM for CJM/01 campaign names and trees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Data-Practice\32 LLM for CJM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F9D66-3DCA-4DB3-9B6C-97824B518FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7693CAF-4716-4658-9B47-7A981848260E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Campaign Description</t>
-  </si>
-  <si>
-    <t>Campaign type</t>
   </si>
   <si>
     <t xml:space="preserve">Отправляем коммуникацию по сегменту клиентов  
@@ -40,14 +37,6 @@
     <t>Коммуникация по сегменту клиентов</t>
   </si>
   <si>
-    <t xml:space="preserve">Коммуникация по сегменту клиентов с A\B тестом </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отправляем коммуникацию по сегменту клиентов  мужчины 25-40
-Используем шаблон Email для банков 
-Проводим A\B тест </t>
-  </si>
-  <si>
     <t>Campaign Tree</t>
   </si>
   <si>
@@ -63,12 +52,20 @@
     <t>segment_touchpoint</t>
   </si>
   <si>
-    <t>Placeholders</t>
-  </si>
-  <si>
-    <t>segmentId_placeholder
-cam_name_placeholder
-contentunit_placeholder</t>
+    <t>Коммуникация по сегменту клиентов без AB-теста</t>
+  </si>
+  <si>
+    <t>Коммуникация по сегменту клиентов с A\B тестом 
+Сплит 5% - 95%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправляем коммуникацию по сегменту Проводим A\B тест </t>
+  </si>
+  <si>
+    <t>Отправляем коммуникацию с контеной единицей и с контрольной группой</t>
+  </si>
+  <si>
+    <t>Отправляем коммуникацию с контеной единицей и с контрольной группой в 5 процентов</t>
   </si>
 </sst>
 </file>
@@ -104,10 +101,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,101 +389,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/32 LLM for CJM/01 campaign names and trees.xlsx
+++ b/32 LLM for CJM/01 campaign names and trees.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Data-Practice\32 LLM for CJM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7693CAF-4716-4658-9B47-7A981848260E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A491AC4C-43D6-413B-95BC-8AD9F67B5B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,25 +26,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Campaign Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Отправляем коммуникацию по сегменту клиентов  
-Используем шаблон Email для банков </t>
-  </si>
-  <si>
     <t>Коммуникация по сегменту клиентов</t>
   </si>
   <si>
     <t>Campaign Tree</t>
-  </si>
-  <si>
-    <t>Коммуникация по сегменту клиентов c локальной контрольной группой</t>
-  </si>
-  <si>
-    <t>Коммуникация по сегменту клиентов без локальной контрольной группы</t>
   </si>
   <si>
     <t>segment_ab_touchpoint</t>
@@ -66,6 +57,31 @@
   </si>
   <si>
     <t>Отправляем коммуникацию с контеной единицей и с контрольной группой в 5 процентов</t>
+  </si>
+  <si>
+    <t>Коммуникация по сегменту клиентов c AB-тестом</t>
+  </si>
+  <si>
+    <t>Коммуникация по сегменту клиентов с контрольной группой</t>
+  </si>
+  <si>
+    <t>Отправляем коммуникацию с контеной единицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправляем коммуникацию с контеной единицей
+Проводим A\B тест </t>
+  </si>
+  <si>
+    <t>Отправляем коммуникацию с контеной единицей с AB-тестом</t>
+  </si>
+  <si>
+    <t>Отправляем коммуникацию с контеной единицей без AB-теста</t>
+  </si>
+  <si>
+    <t>Коммуникация по сегменту клиентов с AB-тестом</t>
+  </si>
+  <si>
+    <t>Коммуникация по сегменту клиентов с A\B тестом и локальной контрольной группой</t>
   </si>
 </sst>
 </file>
@@ -389,16 +405,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.54296875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="1"/>
@@ -406,7 +422,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -414,78 +430,164 @@
     </row>
     <row r="2" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2AFA4C-689D-47AA-9C50-C0F9598F037F}">
+  <dimension ref="E14:F14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
